--- a/datasets/car_data.xlsx
+++ b/datasets/car_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anushka\Documents\minor project\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717BF8CB-C8A5-43B6-B7BB-19C1E4D4B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D629B80-8C83-491B-A2B0-E3C0300F2D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t xml:space="preserve">Ramu Singh </t>
   </si>
   <si>
-    <t>Customer Satsfied Remarks  (1 to 10  number of rating)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer Voice </t>
   </si>
   <si>
@@ -812,6 +809,9 @@
   </si>
   <si>
     <t xml:space="preserve">EX </t>
+  </si>
+  <si>
+    <t>Customer Satisfied Remarks  (1 to 10  number of rating)</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1539,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -1622,13 +1622,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="12">
         <v>681000</v>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
@@ -1651,13 +1651,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="12">
         <v>770000</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1680,13 +1680,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="12">
         <v>873000</v>
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1709,13 +1709,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="12">
         <v>973000</v>
@@ -1729,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1738,13 +1738,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="15">
         <v>1073000</v>
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -1767,13 +1767,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="15">
         <v>1356000</v>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1796,13 +1796,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="15">
         <v>1368000</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -1825,13 +1825,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="15">
         <v>1436000</v>
@@ -1845,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -1854,13 +1854,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="15">
         <v>1646000</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
@@ -1883,13 +1883,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="H13" s="19">
         <v>2404000</v>
@@ -1903,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>8</v>
@@ -1912,13 +1912,13 @@
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="19">
         <v>2409000</v>
@@ -1932,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>8</v>
@@ -1941,13 +1941,13 @@
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="19">
         <v>2568000</v>
@@ -1961,7 +1961,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>8</v>
@@ -1970,13 +1970,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="19">
         <v>1999000</v>
@@ -1990,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
@@ -1999,13 +1999,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="19">
         <v>1999000</v>
@@ -2019,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>8</v>
@@ -2028,13 +2028,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="24">
         <v>1882000</v>
@@ -2048,7 +2048,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
@@ -2057,13 +2057,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="H19" s="24">
         <v>1887000</v>
@@ -2077,7 +2077,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -2086,13 +2086,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="24">
         <v>1967000</v>
@@ -2106,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>8</v>
@@ -2115,13 +2115,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="24">
         <v>1972000</v>
@@ -2135,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>8</v>
@@ -2144,13 +2144,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="24">
         <v>2530000</v>
@@ -2164,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -2173,13 +2173,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="27">
         <v>4322000</v>
@@ -2193,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>8</v>
@@ -2202,13 +2202,13 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="27">
         <v>4694000</v>
@@ -2222,7 +2222,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>8</v>
@@ -2231,13 +2231,13 @@
         <v>15</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="30">
         <v>3040000</v>
@@ -2251,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
@@ -2260,13 +2260,13 @@
         <v>15</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="30">
         <v>3715000</v>
@@ -2280,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -2289,13 +2289,13 @@
         <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H27" s="30">
         <v>3790000</v>
@@ -2309,7 +2309,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -2318,13 +2318,13 @@
         <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="6">
         <v>9655000</v>
@@ -2338,22 +2338,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H29" s="6">
         <v>4617000</v>
@@ -2367,22 +2367,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="H30" s="54">
         <v>651500</v>
@@ -2396,22 +2396,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G31" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H31" s="54">
         <v>799250</v>
@@ -2425,22 +2425,22 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G32" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H32" s="54">
         <v>812250</v>
@@ -2454,22 +2454,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G33" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="54">
         <v>839250</v>
@@ -2483,22 +2483,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G34" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H34" s="54">
         <v>661000</v>
@@ -2512,22 +2512,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G35" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H35" s="54">
         <v>745000</v>
@@ -2541,22 +2541,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G36" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H36" s="54">
         <v>800000</v>
@@ -2570,22 +2570,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G37" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H37" s="54">
         <v>838000</v>
@@ -2599,22 +2599,22 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H38" s="54">
         <v>829000</v>
@@ -2626,19 +2626,19 @@
     <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2649,22 +2649,22 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G40" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H40" s="54">
         <v>924000</v>
@@ -2678,22 +2678,22 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G41" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="54">
         <v>964500</v>
@@ -2707,22 +2707,22 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G42" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="54">
         <v>573400</v>
@@ -2736,22 +2736,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G43" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H43" s="54">
         <v>978000</v>
@@ -2765,22 +2765,22 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G44" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H44" s="54">
         <v>1088000</v>
@@ -2794,22 +2794,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G45" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H45" s="54">
         <v>662900</v>
@@ -2823,22 +2823,22 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G46" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" s="54">
         <v>718300</v>
@@ -2852,22 +2852,22 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G47" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H47" s="54">
         <v>745900</v>
@@ -2881,22 +2881,22 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G48" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H48" s="54">
         <v>807600</v>
@@ -2910,22 +2910,22 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G49" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H49" s="54">
         <v>822600</v>
@@ -2940,22 +2940,22 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G50" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H50" s="54">
         <v>903500</v>
@@ -2970,22 +2970,22 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="54">
         <v>632500</v>
@@ -3000,22 +3000,22 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="54" t="s">
         <v>182</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>183</v>
       </c>
       <c r="H52" s="54">
         <v>717900</v>
@@ -3030,22 +3030,22 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="H53" s="54">
         <v>1096500</v>
@@ -3060,22 +3060,22 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H54" s="54">
         <v>1298500</v>
@@ -3089,22 +3089,22 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H55" s="54">
         <v>599900</v>
@@ -3118,22 +3118,22 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="40" t="s">
         <v>187</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>188</v>
       </c>
       <c r="H56" s="54">
         <v>624990</v>
@@ -3147,22 +3147,22 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G57" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H57" s="54">
         <v>1267300</v>
@@ -3176,22 +3176,22 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="H58" s="54">
         <v>2384000</v>
@@ -3205,22 +3205,22 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G59" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H59" s="54">
         <v>1181200</v>
@@ -3234,22 +3234,22 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="40" t="s">
         <v>214</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>215</v>
       </c>
       <c r="H60" s="54">
         <v>1324000</v>
@@ -3263,22 +3263,22 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="G61" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" s="54">
         <v>399000</v>
@@ -3302,7 +3302,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3315,7 +3315,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -3388,7 +3388,7 @@
         <v>44958</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -3402,7 +3402,7 @@
         <v>44958</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -3416,7 +3416,7 @@
         <v>44958</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -3430,7 +3430,7 @@
         <v>44958</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         <v>44958</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
@@ -3458,7 +3458,7 @@
         <v>44986</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -3472,7 +3472,7 @@
         <v>44986</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -3486,7 +3486,7 @@
         <v>44986</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>44986</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -3514,7 +3514,7 @@
         <v>45017</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -3528,7 +3528,7 @@
         <v>45017</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -3612,7 +3612,7 @@
         <v>45108</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -3626,7 +3626,7 @@
         <v>45108</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -3640,7 +3640,7 @@
         <v>45139</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="47">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>45139</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="47">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>45200</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -3724,7 +3724,7 @@
         <v>45200</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
@@ -3752,7 +3752,7 @@
         <v>45231</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2">
         <v>4</v>
@@ -3766,7 +3766,7 @@
         <v>45231</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>45261</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -3808,7 +3808,7 @@
         <v>45261</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3843,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="E45" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3872,16 +3872,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>22</v>
@@ -3890,16 +3890,16 @@
         <v>23</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3910,16 +3910,16 @@
         <v>26</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G2" s="35">
         <v>44928</v>
@@ -3934,7 +3934,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="34">
         <v>10</v>
@@ -3945,19 +3945,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="35">
         <v>44930</v>
@@ -3969,10 +3969,10 @@
         <v>2793490</v>
       </c>
       <c r="J3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="34">
         <v>6</v>
@@ -3983,19 +3983,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" s="35">
         <v>44931</v>
@@ -4007,10 +4007,10 @@
         <v>2793490</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="34">
         <v>8</v>
@@ -4021,19 +4021,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="35">
         <v>44933</v>
@@ -4048,7 +4048,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" s="34">
         <v>9</v>
@@ -4059,19 +4059,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="35">
         <v>44936</v>
@@ -4086,7 +4086,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="34">
         <v>6</v>
@@ -4097,19 +4097,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="35">
         <v>44941</v>
@@ -4121,10 +4121,10 @@
         <v>2931701</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="34">
         <v>10</v>
@@ -4135,19 +4135,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="G8" s="35">
         <v>44955</v>
@@ -4162,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="34">
         <v>5</v>
@@ -4173,19 +4173,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" s="35">
         <v>44960</v>
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="34">
         <v>10</v>
@@ -4211,19 +4211,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="35">
         <v>44962</v>
@@ -4235,10 +4235,10 @@
         <v>905372</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="34">
         <v>8</v>
@@ -4249,19 +4249,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G11" s="35">
         <v>44963</v>
@@ -4276,7 +4276,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="34">
         <v>4</v>
@@ -4287,19 +4287,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="35">
         <v>44965</v>
@@ -4314,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="34">
         <v>8</v>
@@ -4325,19 +4325,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="35">
         <v>44967</v>
@@ -4352,7 +4352,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="34">
         <v>10</v>
@@ -4363,19 +4363,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="35">
         <v>44967</v>
@@ -4387,10 +4387,10 @@
         <v>905372</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="34">
         <v>10</v>
@@ -4401,19 +4401,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="35">
         <v>44968</v>
@@ -4428,7 +4428,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="34">
         <v>7</v>
@@ -4439,19 +4439,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="35">
         <v>44970</v>
@@ -4466,7 +4466,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="34">
         <v>8</v>
@@ -4477,19 +4477,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="35">
         <v>44975</v>
@@ -4501,10 +4501,10 @@
         <v>1092198</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="34">
         <v>10</v>
@@ -4515,19 +4515,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="35">
         <v>44980</v>
@@ -4542,7 +4542,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="34">
         <v>10</v>
@@ -4553,19 +4553,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="35">
         <v>44985</v>
@@ -4577,10 +4577,10 @@
         <v>941355</v>
       </c>
       <c r="J19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L19" s="34">
         <v>5</v>
@@ -4591,19 +4591,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="35">
         <v>44986</v>
@@ -4618,7 +4618,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="34">
         <v>6</v>
@@ -4629,19 +4629,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="35">
         <v>44989</v>
@@ -4656,7 +4656,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" s="34">
         <v>7</v>
@@ -4667,19 +4667,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="35">
         <v>44989</v>
@@ -4691,10 +4691,10 @@
         <v>1508098</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" s="34">
         <v>10</v>
@@ -4705,19 +4705,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="35">
         <v>44994</v>
@@ -4732,7 +4732,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="34">
         <v>10</v>
@@ -4743,19 +4743,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" s="35">
         <v>44994</v>
@@ -4767,10 +4767,10 @@
         <v>825410</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="34">
         <v>10</v>
@@ -4781,19 +4781,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="35">
         <v>44999</v>
@@ -4808,7 +4808,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="34">
         <v>10</v>
@@ -4819,19 +4819,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="35">
         <v>44972</v>
@@ -4846,7 +4846,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L26" s="34">
         <v>8</v>
@@ -4857,19 +4857,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27" s="35">
         <v>45003</v>
@@ -4881,10 +4881,10 @@
         <v>729357</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L27" s="34">
         <v>7</v>
@@ -4895,19 +4895,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="35">
         <v>45005</v>
@@ -4919,10 +4919,10 @@
         <v>720909</v>
       </c>
       <c r="J28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L28" s="34">
         <v>6</v>
@@ -4933,19 +4933,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="35">
         <v>45017</v>
@@ -4960,7 +4960,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L29" s="34">
         <v>10</v>
@@ -4971,19 +4971,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="35">
         <v>45019</v>
@@ -4995,10 +4995,10 @@
         <v>2503990</v>
       </c>
       <c r="J30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L30" s="34">
         <v>7</v>
@@ -5009,19 +5009,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="35">
         <v>45019</v>
@@ -5036,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="34">
         <v>6</v>
@@ -5047,19 +5047,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="35">
         <v>45024</v>
@@ -5071,10 +5071,10 @@
         <v>1472294</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" s="34">
         <v>10</v>
@@ -5085,19 +5085,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="35">
         <v>44965</v>
@@ -5112,7 +5112,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33" s="34">
         <v>7</v>
@@ -5123,19 +5123,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="35">
         <v>45028</v>
@@ -5147,10 +5147,10 @@
         <v>1898694</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="34">
         <v>10</v>
@@ -5161,19 +5161,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="35">
         <v>45031</v>
@@ -5188,7 +5188,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L35" s="34">
         <v>6</v>
@@ -5199,19 +5199,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="35">
         <v>45034</v>
@@ -5226,7 +5226,7 @@
         <v>25</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36" s="34">
         <v>5</v>
@@ -5237,19 +5237,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="35">
         <v>45040</v>
@@ -5261,10 +5261,10 @@
         <v>2503990</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L37" s="34">
         <v>8</v>
@@ -5275,19 +5275,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="35">
         <v>45049</v>
@@ -5302,7 +5302,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L38" s="34">
         <v>7</v>
@@ -5313,19 +5313,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G39" s="35">
         <v>45050</v>
@@ -5340,7 +5340,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" s="34">
         <v>4</v>
@@ -5351,19 +5351,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G40" s="35">
         <v>45052</v>
@@ -5375,10 +5375,10 @@
         <v>5415471</v>
       </c>
       <c r="J40" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L40" s="34">
         <v>5</v>
@@ -5389,19 +5389,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="35">
         <v>44993</v>
@@ -5416,7 +5416,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" s="34">
         <v>4</v>
@@ -5427,19 +5427,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G42" s="35">
         <v>45026</v>
@@ -5451,10 +5451,10 @@
         <v>1472294</v>
       </c>
       <c r="J42" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L42" s="34">
         <v>10</v>
@@ -5465,19 +5465,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="35">
         <v>45057</v>
@@ -5492,7 +5492,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L43" s="34">
         <v>6</v>
@@ -5503,19 +5503,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G44" s="35">
         <v>45061</v>
@@ -5530,7 +5530,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L44" s="34">
         <v>10</v>
@@ -5541,19 +5541,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="35">
         <v>45065</v>
@@ -5568,7 +5568,7 @@
         <v>25</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" s="34">
         <v>10</v>
@@ -5579,19 +5579,19 @@
         <v>46</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G46" s="35">
         <v>45078</v>
@@ -5603,10 +5603,10 @@
         <v>2793490</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" s="34">
         <v>7</v>
@@ -5617,19 +5617,19 @@
         <v>47</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G47" s="35">
         <v>45082</v>
@@ -5644,7 +5644,7 @@
         <v>25</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L47" s="34">
         <v>10</v>
@@ -5655,19 +5655,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G48" s="35">
         <v>45089</v>
@@ -5679,10 +5679,10 @@
         <v>2793490</v>
       </c>
       <c r="J48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L48" s="34">
         <v>6</v>
@@ -5693,19 +5693,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="35">
         <v>45095</v>
@@ -5717,10 +5717,10 @@
         <v>2931701</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L49" s="34">
         <v>10</v>
@@ -5731,19 +5731,19 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" s="35">
         <v>45102</v>
@@ -5758,7 +5758,7 @@
         <v>25</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L50" s="34">
         <v>6</v>
@@ -5769,19 +5769,19 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" s="43">
         <v>45108</v>
@@ -5796,7 +5796,7 @@
         <v>25</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L51" s="34">
         <v>10</v>
@@ -5807,19 +5807,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" s="35">
         <v>45109</v>
@@ -5831,10 +5831,10 @@
         <v>720909</v>
       </c>
       <c r="J52" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K52" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L52" s="34">
         <v>5</v>
@@ -5845,19 +5845,19 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G53" s="35">
         <v>45114</v>
@@ -5872,7 +5872,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L53" s="34">
         <v>8</v>
@@ -5883,19 +5883,19 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D54" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G54" s="35">
         <v>45086</v>
@@ -5910,7 +5910,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L54" s="34">
         <v>10</v>
@@ -5921,19 +5921,19 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="35">
         <v>45121</v>
@@ -5948,7 +5948,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L55" s="34">
         <v>5</v>
@@ -5959,19 +5959,19 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="35">
         <v>45065</v>
@@ -5983,10 +5983,10 @@
         <v>5415471</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L56" s="34">
         <v>8</v>
@@ -5997,19 +5997,19 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G57" s="35">
         <v>45128</v>
@@ -6024,7 +6024,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57" s="34">
         <v>5</v>
@@ -6035,19 +6035,19 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D58" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G58" s="35">
         <v>45067</v>
@@ -6062,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L58" s="34">
         <v>8</v>
@@ -6073,19 +6073,19 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G59" s="35">
         <v>45132</v>
@@ -6097,10 +6097,10 @@
         <v>692690</v>
       </c>
       <c r="J59" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L59" s="34">
         <v>10</v>
@@ -6111,19 +6111,19 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="35">
         <v>45139</v>
@@ -6138,7 +6138,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L60" s="34">
         <v>6</v>
@@ -6149,19 +6149,19 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G61" s="35">
         <v>45265</v>
@@ -6176,7 +6176,7 @@
         <v>25</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L61" s="34">
         <v>8</v>
@@ -6187,19 +6187,19 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G62" s="35">
         <v>45146</v>
@@ -6214,7 +6214,7 @@
         <v>25</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L62" s="34">
         <v>10</v>
@@ -6225,19 +6225,19 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G63" s="35">
         <v>45153</v>
@@ -6249,10 +6249,10 @@
         <v>851566</v>
       </c>
       <c r="J63" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K63" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L63" s="34">
         <v>6</v>
@@ -6263,19 +6263,19 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G64" s="35">
         <v>45158</v>
@@ -6290,7 +6290,7 @@
         <v>25</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L64" s="34">
         <v>8</v>
@@ -6301,19 +6301,19 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G65" s="35">
         <v>45172</v>
@@ -6328,7 +6328,7 @@
         <v>25</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L65" s="34">
         <v>5</v>
@@ -6339,19 +6339,19 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D66" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G66" s="35">
         <v>45177</v>
@@ -6363,10 +6363,10 @@
         <v>4341365</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L66" s="34">
         <v>10</v>
@@ -6377,19 +6377,19 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G67" s="35">
         <v>45187</v>
@@ -6404,7 +6404,7 @@
         <v>25</v>
       </c>
       <c r="K67" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L67" s="34">
         <v>6</v>
@@ -6415,19 +6415,19 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G68" s="35">
         <v>45194</v>
@@ -6439,10 +6439,10 @@
         <v>1898694</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L68" s="34">
         <v>8</v>
@@ -6453,19 +6453,19 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G69" s="35">
         <v>45203</v>
@@ -6477,10 +6477,10 @@
         <v>456052</v>
       </c>
       <c r="J69" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K69" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L69" s="34">
         <v>5</v>
@@ -6491,19 +6491,19 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G70" s="35">
         <v>45207</v>
@@ -6515,10 +6515,10 @@
         <v>1108946</v>
       </c>
       <c r="J70" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L70" s="34">
         <v>10</v>
@@ -6529,19 +6529,19 @@
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="35">
         <v>45214</v>
@@ -6556,7 +6556,7 @@
         <v>25</v>
       </c>
       <c r="K71" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L71" s="34">
         <v>6</v>
@@ -6567,19 +6567,19 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="35">
         <v>45219</v>
@@ -6594,7 +6594,7 @@
         <v>25</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L72" s="34">
         <v>8</v>
@@ -6605,19 +6605,19 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G73" s="35">
         <v>45223</v>
@@ -6629,10 +6629,10 @@
         <v>456052</v>
       </c>
       <c r="J73" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L73" s="34">
         <v>10</v>
@@ -6643,19 +6643,19 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="35">
         <v>45226</v>
@@ -6670,7 +6670,7 @@
         <v>25</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L74" s="34">
         <v>10</v>
@@ -6681,19 +6681,19 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="35">
         <v>45232</v>
@@ -6708,7 +6708,7 @@
         <v>25</v>
       </c>
       <c r="K75" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L75" s="34">
         <v>10</v>
@@ -6719,19 +6719,19 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D76" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="35">
         <v>45236</v>
@@ -6746,7 +6746,7 @@
         <v>25</v>
       </c>
       <c r="K76" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L76" s="34">
         <v>8</v>
@@ -6757,19 +6757,19 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="35">
         <v>45243</v>
@@ -6781,10 +6781,10 @@
         <v>2931701</v>
       </c>
       <c r="J77" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L77" s="34">
         <v>7</v>
@@ -6795,19 +6795,19 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G78" s="35">
         <v>45246</v>
@@ -6822,7 +6822,7 @@
         <v>25</v>
       </c>
       <c r="K78" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L78" s="34">
         <v>9</v>
@@ -6833,19 +6833,19 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="35">
         <v>45279</v>
@@ -6860,7 +6860,7 @@
         <v>25</v>
       </c>
       <c r="K79" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L79" s="34">
         <v>10</v>
@@ -6871,19 +6871,19 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D80" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G80" s="35">
         <v>45250</v>
@@ -6895,10 +6895,10 @@
         <v>2931701</v>
       </c>
       <c r="J80" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K80" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L80" s="34">
         <v>8</v>
@@ -6909,19 +6909,19 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G81" s="35">
         <v>45253</v>
@@ -6936,7 +6936,7 @@
         <v>25</v>
       </c>
       <c r="K81" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L81" s="34">
         <v>5</v>
@@ -6947,19 +6947,19 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G82" s="35">
         <v>45253</v>
@@ -6971,10 +6971,10 @@
         <v>1508098</v>
       </c>
       <c r="J82" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K82" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L82" s="34">
         <v>4</v>
@@ -6985,19 +6985,19 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G83" s="35">
         <v>45255</v>
@@ -7012,7 +7012,7 @@
         <v>25</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L83" s="34">
         <v>10</v>
@@ -7023,19 +7023,19 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F84" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G84" s="35">
         <v>45258</v>
@@ -7047,10 +7047,10 @@
         <v>1508098</v>
       </c>
       <c r="J84" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K84" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L84" s="34">
         <v>10</v>
@@ -7061,19 +7061,19 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D85" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F85" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G85" s="35">
         <v>45262</v>
@@ -7088,7 +7088,7 @@
         <v>25</v>
       </c>
       <c r="K85" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L85" s="34">
         <v>8</v>
@@ -7099,19 +7099,19 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F86" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G86" s="35">
         <v>45270</v>
@@ -7123,10 +7123,10 @@
         <v>905372</v>
       </c>
       <c r="J86" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K86" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L86" s="34">
         <v>7</v>
@@ -7137,19 +7137,19 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G87" s="35">
         <v>45277</v>
@@ -7164,7 +7164,7 @@
         <v>25</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L87" s="34">
         <v>4</v>
@@ -7175,19 +7175,19 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D88" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G88" s="35">
         <v>45280</v>
@@ -7202,7 +7202,7 @@
         <v>25</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L88" s="34">
         <v>10</v>
@@ -7213,19 +7213,19 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G89" s="35">
         <v>45285</v>
@@ -7240,7 +7240,7 @@
         <v>25</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L89" s="34">
         <v>4</v>
